--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/153.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/153.xlsx
@@ -479,13 +479,13 @@
         <v>-11.6829918383915</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.22795808866216</v>
+        <v>-14.44771239186053</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2548051117447648</v>
+        <v>-0.1428266455394818</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.377737934300041</v>
+        <v>-7.644506697003052</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.44895336188183</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.65810569852707</v>
+        <v>-14.84912239698786</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3449456168100488</v>
+        <v>-0.2237370771013489</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.530381093131725</v>
+        <v>-7.778977739490419</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.18567545366169</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.06882433097486</v>
+        <v>-15.24911843340827</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2679235991921743</v>
+        <v>-0.1434157991673594</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.438970634690794</v>
+        <v>-7.638942468295317</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.92058602573488</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.51125252090531</v>
+        <v>-15.67537762932919</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2038236844790835</v>
+        <v>-0.1009443687488001</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.525968987074063</v>
+        <v>-7.677211269501683</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.66254569055893</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.22960099322514</v>
+        <v>-16.35056077917984</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2872609304894038</v>
+        <v>-0.1748111413818186</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.471858499429209</v>
+        <v>-7.617366353212153</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.42863604113656</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.83968921334673</v>
+        <v>-16.95148438731223</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.110410103703368</v>
+        <v>-0.03213122501268785</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.446956939424247</v>
+        <v>-7.448711308005038</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.22286865711545</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.50485675152346</v>
+        <v>-17.6097915587999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09062763410951992</v>
+        <v>-0.005985896237760893</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.456134643716297</v>
+        <v>-7.404839001182414</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.05690424956206</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.16015269335754</v>
+        <v>-18.21443338093933</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02885814930225633</v>
+        <v>0.04368630074374781</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.235856648404256</v>
+        <v>-7.161767306622927</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.928732824082772</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.87301549078668</v>
+        <v>-18.93149880758067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1864709555356123</v>
+        <v>0.2369025060819411</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.971444500212756</v>
+        <v>-6.942759264686534</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.847019034707184</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.52435755716255</v>
+        <v>-19.56091126669665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2200788969303231</v>
+        <v>0.25502225321489</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.940232450238081</v>
+        <v>-6.924351486891067</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.812400113729925</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.33745502514795</v>
+        <v>-20.34677674477126</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2841395347348888</v>
+        <v>0.3037779889974779</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.781907231973087</v>
+        <v>-6.767636621875606</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.827911271820257</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.10365586435428</v>
+        <v>-21.06759966232817</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3698941183481945</v>
+        <v>0.3598130451600655</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.405346417639362</v>
+        <v>-6.426778517391268</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.8979089830672</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.08992522202719</v>
+        <v>-22.04953546776047</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4716344037312478</v>
+        <v>0.4546929638540543</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.901122558295966</v>
+        <v>-5.991014309607258</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.01618345684037</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.90153016748863</v>
+        <v>-22.82541151876684</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6087108144841198</v>
+        <v>0.6177968726562776</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.342853672821925</v>
+        <v>-5.522663360050191</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.17844955511229</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.91126093185391</v>
+        <v>-23.78687096255468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8119033545877083</v>
+        <v>0.8359146379994339</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.727685639197742</v>
+        <v>-4.941430575391762</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.36516851238995</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.94120621180682</v>
+        <v>-24.80659115398819</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8912950790199352</v>
+        <v>0.9119154559956537</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.078320510550971</v>
+        <v>-4.398545145756749</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.56120457660104</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.70950181946783</v>
+        <v>-25.55375578486266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.952148102628278</v>
+        <v>0.9712497724743563</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.465299614592831</v>
+        <v>-3.8825382138558</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.74264006407645</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.46487532422406</v>
+        <v>-26.35099847410672</v>
       </c>
       <c r="F19" t="n">
-        <v>1.130347436607011</v>
+        <v>1.148990875853629</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.620296204582147</v>
+        <v>-3.113587991052702</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.88923234270124</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.06712125494346</v>
+        <v>-26.90903169812962</v>
       </c>
       <c r="F20" t="n">
-        <v>1.29720883632481</v>
+        <v>1.306360356011177</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.855142749603151</v>
+        <v>-2.388771921129063</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.98715180971215</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.91721757075957</v>
+        <v>-27.71049010888872</v>
       </c>
       <c r="F21" t="n">
-        <v>1.292063561308012</v>
+        <v>1.315957013994162</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.369575421809214</v>
+        <v>-2.013690537016454</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.02218276021135</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.56320488527318</v>
+        <v>-28.32547485027312</v>
       </c>
       <c r="F22" t="n">
-        <v>1.414987192688978</v>
+        <v>1.438265307141567</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.8982656118099176</v>
+        <v>-1.577127698759098</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.99421015885767</v>
       </c>
       <c r="E23" t="n">
-        <v>-29.00648407488834</v>
+        <v>-28.75041172360702</v>
       </c>
       <c r="F23" t="n">
-        <v>1.605532568247459</v>
+        <v>1.631874281565012</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.5510446481445006</v>
+        <v>-1.269942997183679</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.90116648819487</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.39431736196879</v>
+        <v>-29.17066155252358</v>
       </c>
       <c r="F24" t="n">
-        <v>1.593670941872855</v>
+        <v>1.644390523081702</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3278994385101214</v>
+        <v>-1.121947605860808</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.75286561991137</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.7824517720146</v>
+        <v>-29.55734271695396</v>
       </c>
       <c r="F25" t="n">
-        <v>1.823938364253133</v>
+        <v>1.876831267733707</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1457462290731867</v>
+        <v>-0.9469951629868221</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.55814305721534</v>
       </c>
       <c r="E26" t="n">
-        <v>-30.13979308577667</v>
+        <v>-29.82720126312762</v>
       </c>
       <c r="F26" t="n">
-        <v>1.840591773467809</v>
+        <v>1.908855040484569</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.03351900911391081</v>
+        <v>-0.8452548776037687</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.32703333619891</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.94734932630614</v>
+        <v>-29.63333044264734</v>
       </c>
       <c r="F27" t="n">
-        <v>1.844964602616946</v>
+        <v>1.935956107366942</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01180654332414483</v>
+        <v>-0.7918251897066847</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.07561663153971</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.97985751426215</v>
+        <v>-29.64008607091367</v>
       </c>
       <c r="F28" t="n">
-        <v>1.91872663682723</v>
+        <v>2.004297928200752</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2786931367527307</v>
+        <v>-0.513365000566013</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.810380540973366</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.9461448344447</v>
+        <v>-29.59406662642501</v>
       </c>
       <c r="F29" t="n">
-        <v>1.887985909754857</v>
+        <v>1.986832796209889</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2057821022271583</v>
+        <v>-0.5745977009567658</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.543959052192971</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.64354243886389</v>
+        <v>-29.33870125949714</v>
       </c>
       <c r="F30" t="n">
-        <v>1.760676356921913</v>
+        <v>1.881151727671476</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04229851664252485</v>
+        <v>-0.7504535127268304</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.277949669762283</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.23836185051815</v>
+        <v>-28.94252817550651</v>
       </c>
       <c r="F31" t="n">
-        <v>1.784556717305221</v>
+        <v>1.893903630639318</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1609856695809558</v>
+        <v>-0.9018136258800253</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.013749902699923</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.80994242462835</v>
+        <v>-28.55587319568181</v>
       </c>
       <c r="F32" t="n">
-        <v>1.829253839206874</v>
+        <v>1.937055860805647</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5938695707397865</v>
+        <v>-1.294569618828966</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.749788896942581</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.39864773085552</v>
+        <v>-28.16840649308093</v>
       </c>
       <c r="F33" t="n">
-        <v>1.881020804643059</v>
+        <v>1.977641999614997</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.7489740825057153</v>
+        <v>-1.395157781561947</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.477298616209843</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.68413530326832</v>
+        <v>-27.49400888140078</v>
       </c>
       <c r="F34" t="n">
-        <v>1.855045675805075</v>
+        <v>1.92760321815392</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.135131554822426</v>
+        <v>-1.762527799300781</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.19694729437588</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.08792492415896</v>
+        <v>-26.90753917560566</v>
       </c>
       <c r="F35" t="n">
-        <v>1.874029514925577</v>
+        <v>1.908567009822051</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.372285528497452</v>
+        <v>-1.947993361356672</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.9001915254054</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.48693585451237</v>
+        <v>-26.32618856022166</v>
       </c>
       <c r="F36" t="n">
-        <v>1.821555565135939</v>
+        <v>1.870494593158311</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.729522103836789</v>
+        <v>-2.212457878759539</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.590365960139422</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.74224566887499</v>
+        <v>-25.61254022462201</v>
       </c>
       <c r="F37" t="n">
-        <v>1.95399730068284</v>
+        <v>1.97895122989917</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.891801197559984</v>
+        <v>-2.345370937208742</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.268164826417185</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.1297746496362</v>
+        <v>-25.04144088236308</v>
       </c>
       <c r="F38" t="n">
-        <v>2.156692333278443</v>
+        <v>2.157006548546645</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.210075079642345</v>
+        <v>-2.616355421426788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.938190727780985</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.48454668868742</v>
+        <v>-24.40075595050037</v>
       </c>
       <c r="F39" t="n">
-        <v>2.237759872474411</v>
+        <v>2.244489316135058</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.51731215042913</v>
+        <v>-2.842459491503397</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.609430499514347</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.84912486256708</v>
+        <v>-23.81272826066708</v>
       </c>
       <c r="F40" t="n">
-        <v>2.373736529788578</v>
+        <v>2.358444720069442</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.855159025259872</v>
+        <v>-3.155941590745686</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.286784708114387</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.14046469435013</v>
+        <v>-23.1311036978183</v>
       </c>
       <c r="F41" t="n">
-        <v>2.507801710887853</v>
+        <v>2.471038524508286</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.07428489792184</v>
+        <v>-3.335934570213736</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.984320433554375</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.4886643973748</v>
+        <v>-22.46528154449948</v>
       </c>
       <c r="F42" t="n">
-        <v>2.696880748528061</v>
+        <v>2.638515262459646</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.616280050963616</v>
+        <v>-3.824827342929471</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.707805385043303</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.9065937053345</v>
+        <v>-21.88831685056745</v>
       </c>
       <c r="F43" t="n">
-        <v>2.78334231649482</v>
+        <v>2.713979296039355</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.027103421834139</v>
+        <v>-4.147722807914961</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.469347705273956</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.11038530801493</v>
+        <v>-21.09332603741216</v>
       </c>
       <c r="F44" t="n">
-        <v>2.859225303765464</v>
+        <v>2.767971952958633</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.272466269390927</v>
+        <v>-4.390598117931821</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.274132373334121</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.50045419552744</v>
+        <v>-20.48869730757557</v>
       </c>
       <c r="F45" t="n">
-        <v>2.965325325994812</v>
+        <v>2.884702925095463</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.603780085103646</v>
+        <v>-4.691249760389218</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.126179835409179</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.74680887474632</v>
+        <v>-19.82601730693876</v>
       </c>
       <c r="F46" t="n">
-        <v>3.126910527667395</v>
+        <v>3.050530032888765</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.836312475875544</v>
+        <v>-4.931048379238273</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.027902517270638</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.27092985105526</v>
+        <v>-19.35422308173432</v>
       </c>
       <c r="F47" t="n">
-        <v>3.177315893608041</v>
+        <v>3.089466541540058</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.943761005297589</v>
+        <v>-5.055058671755103</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.975947350209847</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.54625779646288</v>
+        <v>-18.62830725837198</v>
       </c>
       <c r="F48" t="n">
-        <v>3.257048017914152</v>
+        <v>3.163987929315164</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.239228095829663</v>
+        <v>-5.318056851239696</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.969071061768551</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.04423344399689</v>
+        <v>-18.14293631512067</v>
       </c>
       <c r="F49" t="n">
-        <v>3.270061766938828</v>
+        <v>3.194911948627321</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.363133649923759</v>
+        <v>-5.410121924822714</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.997938538908388</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.39937206752768</v>
+        <v>-17.54332193727246</v>
       </c>
       <c r="F50" t="n">
-        <v>3.279357301956454</v>
+        <v>3.188732381686026</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.518840407620407</v>
+        <v>-5.526028081880514</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.058154965566624</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.6789681036617</v>
+        <v>-16.89084084054935</v>
       </c>
       <c r="F51" t="n">
-        <v>3.368961022605227</v>
+        <v>3.28084982448041</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.600641115775511</v>
+        <v>-5.606375544420187</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.140411185547624</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.99369078832007</v>
+        <v>-16.2501428163838</v>
       </c>
       <c r="F52" t="n">
-        <v>3.317272610986092</v>
+        <v>3.245605345230484</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.714858365766729</v>
+        <v>-5.677859517936012</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.238400791242029</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.28446765108093</v>
+        <v>-15.60553019366858</v>
       </c>
       <c r="F53" t="n">
-        <v>3.480926396507668</v>
+        <v>3.387866307908679</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.926011025998087</v>
+        <v>-5.911949892746073</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.345314544462601</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.73625365418934</v>
+        <v>-15.04114720276745</v>
       </c>
       <c r="F54" t="n">
-        <v>3.425833986149685</v>
+        <v>3.348248999509616</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.134427394935525</v>
+        <v>-6.066281958644341</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.454733304696086</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.99965451170814</v>
+        <v>-14.36842540585104</v>
       </c>
       <c r="F55" t="n">
-        <v>3.462230588049683</v>
+        <v>3.354114351182709</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.36876652349958</v>
+        <v>-6.260296794455879</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.563641263629015</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.55763218316579</v>
+        <v>-13.97217376804336</v>
       </c>
       <c r="F56" t="n">
-        <v>3.386190493144938</v>
+        <v>3.321017009598826</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.573621786064067</v>
+        <v>-6.458435705662562</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.665970844425612</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.89514856707161</v>
+        <v>-13.33549508085022</v>
       </c>
       <c r="F57" t="n">
-        <v>3.296822433947316</v>
+        <v>3.25429863431739</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.721198223696004</v>
+        <v>-6.613893709605217</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.761902634262275</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.36548636330674</v>
+        <v>-12.83813158819589</v>
       </c>
       <c r="F58" t="n">
-        <v>3.226333475447463</v>
+        <v>3.218399539925377</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.032559369877933</v>
+        <v>-6.942523603235383</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.847632851768383</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.7939156981455</v>
+        <v>-12.26230592461109</v>
       </c>
       <c r="F59" t="n">
-        <v>3.078940330055311</v>
+        <v>3.090356818133296</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.074638031211241</v>
+        <v>-6.979116589678007</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.92351528198413</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.26626970901826</v>
+        <v>-11.72607138481968</v>
       </c>
       <c r="F60" t="n">
-        <v>2.960743020000208</v>
+        <v>2.968388924859776</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.290320628225836</v>
+        <v>-7.187716250855229</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.989439448571687</v>
       </c>
       <c r="E61" t="n">
-        <v>-10.71826518897213</v>
+        <v>-11.25819175816491</v>
       </c>
       <c r="F61" t="n">
-        <v>2.800597971640215</v>
+        <v>2.804944616183668</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.36900536830461</v>
+        <v>-7.279990801283714</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.044558798243963</v>
       </c>
       <c r="E62" t="n">
-        <v>-10.23382379922258</v>
+        <v>-10.76482141787731</v>
       </c>
       <c r="F62" t="n">
-        <v>2.475280430629005</v>
+        <v>2.491960024449364</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.593289608286219</v>
+        <v>-7.457875919994246</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.089986528712934</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.01421351135547</v>
+        <v>-10.53228902710541</v>
       </c>
       <c r="F63" t="n">
-        <v>2.32194337974671</v>
+        <v>2.365802594266492</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.686598450639201</v>
+        <v>-7.57335003105827</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.122286591843954</v>
       </c>
       <c r="E64" t="n">
-        <v>-9.582102056064301</v>
+        <v>-10.14931298437924</v>
       </c>
       <c r="F64" t="n">
-        <v>2.162950454036788</v>
+        <v>2.21840944887434</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.582697935287262</v>
+        <v>-7.510192762149783</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.142929875870734</v>
       </c>
       <c r="E65" t="n">
-        <v>-9.506899868541426</v>
+        <v>-10.03623476473525</v>
       </c>
       <c r="F65" t="n">
-        <v>1.990446271794206</v>
+        <v>2.029539888079599</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.438499311788491</v>
+        <v>-7.436614020179283</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.14896462593878</v>
       </c>
       <c r="E66" t="n">
-        <v>-9.239555044513381</v>
+        <v>-9.774663646260407</v>
       </c>
       <c r="F66" t="n">
-        <v>1.825457071382774</v>
+        <v>1.896076952911044</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.467773700942591</v>
+        <v>-7.487909662713165</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.139556274296942</v>
       </c>
       <c r="E67" t="n">
-        <v>-9.041573240940798</v>
+        <v>-9.592366421492214</v>
       </c>
       <c r="F67" t="n">
-        <v>1.484742982229694</v>
+        <v>1.582647222880122</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.391746698340688</v>
+        <v>-7.402207448311227</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.116340270326925</v>
       </c>
       <c r="E68" t="n">
-        <v>-8.937803648617278</v>
+        <v>-9.495417918949233</v>
       </c>
       <c r="F68" t="n">
-        <v>1.184942339457009</v>
+        <v>1.307604124781141</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.2364981712435</v>
+        <v>-7.271127312259866</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.07870637663731</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.760533868140307</v>
+        <v>-9.313801493928809</v>
       </c>
       <c r="F69" t="n">
-        <v>1.014807864028779</v>
+        <v>1.158417333899672</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.038594921487968</v>
+        <v>-7.099120637525268</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.030373140378514</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.688107248819877</v>
+        <v>-9.234527600222156</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7542448528727467</v>
+        <v>0.9060762889282439</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.706050429308127</v>
+        <v>-6.776447741688088</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.969625940898569</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.520460310931576</v>
+        <v>-9.066068939557669</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7042060714116697</v>
+        <v>0.8510624323873109</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.453172599920188</v>
+        <v>-6.563920389658349</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.898338321675952</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.56532763277017</v>
+        <v>-9.08299728713202</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5616047088595894</v>
+        <v>0.7389661354564524</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.125092583009375</v>
+        <v>-6.264486331365232</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.815910728678158</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.717303084156926</v>
+        <v>-9.207505087156834</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4421243531259972</v>
+        <v>0.5976216339771777</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.780909033603238</v>
+        <v>-5.969961886637762</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.719840388448489</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.990748921309217</v>
+        <v>-9.476853033519665</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3045897117736649</v>
+        <v>0.4717915113653485</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.416654983940735</v>
+        <v>-5.670187428470761</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.610844247676884</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.127851516667773</v>
+        <v>-9.612214352600271</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2388270745996749</v>
+        <v>0.4213992377275449</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.098865517063518</v>
+        <v>-5.395524007154189</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.48380244075129</v>
       </c>
       <c r="E76" t="n">
-        <v>-9.326173720114239</v>
+        <v>-9.782309551119976</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1145287514203276</v>
+        <v>0.3069986954965425</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.628616183594401</v>
+        <v>-4.993865248272875</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.339579141459564</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.745742749283036</v>
+        <v>-10.20746899360219</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1319676988055067</v>
+        <v>0.3010809746120823</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.452511618070344</v>
+        <v>-4.807483225018062</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.175914955931662</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.38357355912625</v>
+        <v>-10.83159216237011</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01340380427083541</v>
+        <v>0.1534652600716209</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.176971012463377</v>
+        <v>-4.58962730573174</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.993321487535161</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.00348100637913</v>
+        <v>-11.43853822980969</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.07673670079444857</v>
+        <v>0.09965589539212676</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.81177431699627</v>
+        <v>-4.245836525410856</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.79368212379236</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.40969588664937</v>
+        <v>-11.79136269909137</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.1411377384728991</v>
+        <v>0.0325840279339641</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.500478632328549</v>
+        <v>-3.953341387623854</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.576464883152903</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.07788774678254</v>
+        <v>-12.43766422887317</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.1896578128043359</v>
+        <v>-0.01399838557689725</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.231418716628237</v>
+        <v>-3.687187963154405</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.348411291100494</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.92200088019999</v>
+        <v>-13.2717617506167</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.2146772035348744</v>
+        <v>-0.02921164147898294</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.901833084890625</v>
+        <v>-3.378563108266396</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.111430723578651</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.61834119144287</v>
+        <v>-13.96888760003009</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.2757135193830014</v>
+        <v>-0.1034842755000949</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.595787413662436</v>
+        <v>-3.100194565245616</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.873505945604836</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.45737451135773</v>
+        <v>-14.81781870089329</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.3668228548585731</v>
+        <v>-0.203129792428472</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.398355486809207</v>
+        <v>-2.879078662551705</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.639669932122768</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.34195595285895</v>
+        <v>-15.70301548062807</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4349028296355486</v>
+        <v>-0.2596492637962035</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.166006388277094</v>
+        <v>-2.673280754182613</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.415165972552511</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.43182470291844</v>
+        <v>-16.82117669712853</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4957951301524166</v>
+        <v>-0.3411226643802648</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.949708453028938</v>
+        <v>-2.45435126606327</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.206177827430229</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.67894510240989</v>
+        <v>-18.04765053503858</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4191658816197939</v>
+        <v>-0.2979966188196191</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.693164778845316</v>
+        <v>-2.219108768603136</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.01406035013258</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.00139861245265</v>
+        <v>-19.37079793713195</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4399302739267714</v>
+        <v>-0.3116387983806977</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.625726326907585</v>
+        <v>-2.120602282021989</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.843991740478466</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.39472075777766</v>
+        <v>-20.73536938541653</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5366431150186018</v>
+        <v>-0.4105249617442547</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.619834790628808</v>
+        <v>-2.117905267636593</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.695213302348251</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.89346212558425</v>
+        <v>-22.20894734716132</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4708412009360867</v>
+        <v>-0.3749138980147598</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.489880592621835</v>
+        <v>-2.001370680042389</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.570837749066994</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.46546802009314</v>
+        <v>-23.76652552393863</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4740488151323096</v>
+        <v>-0.4165736056571321</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.522100749915323</v>
+        <v>-2.047992370461776</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.471172914938979</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.2556571414594</v>
+        <v>-25.53570149924392</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5813140523145712</v>
+        <v>-0.5283687796226311</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.663078666915029</v>
+        <v>-2.156095515025908</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.397019426580363</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.8432297840471</v>
+        <v>-27.1797150593823</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7250151683053565</v>
+        <v>-0.7146198798490261</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.664872312404346</v>
+        <v>-2.167930956794828</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.349638442185969</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.55326782741631</v>
+        <v>-28.90187657518295</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7725533199236639</v>
+        <v>-0.7583219867347076</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.822660746252828</v>
+        <v>-2.312692549315793</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.327580786587297</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.44243475826601</v>
+        <v>-30.7686556681733</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.06485207316804</v>
+        <v>-0.9971517751734746</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.892128505131027</v>
+        <v>-2.389740751539351</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.332056904998509</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.55529677546945</v>
+        <v>-32.86568909124109</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.221671676606235</v>
+        <v>-1.159011915205734</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.169829340706879</v>
+        <v>-2.624276264646032</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.357995334333777</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.62515057783781</v>
+        <v>-34.92410022092579</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.273477918950945</v>
+        <v>-1.210242096225408</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.305858367232412</v>
+        <v>-2.79985713805642</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.404053633359199</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.77049459839157</v>
+        <v>-37.05910132223458</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.344948800163928</v>
+        <v>-1.323438146594972</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.652228331213117</v>
+        <v>-3.130699630866838</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.459881135561619</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.82284399186055</v>
+        <v>-39.1204974969672</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.355396457831625</v>
+        <v>-1.341649539847813</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.961180493672169</v>
+        <v>-3.421532046192941</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.520968292713778</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.04784158290337</v>
+        <v>-41.39536366953415</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.207440343417279</v>
+        <v>-1.272482903934974</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.048637076654899</v>
+        <v>-3.486273483745276</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.56906322248995</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.17789379373799</v>
+        <v>-43.50454674963906</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.344896430952561</v>
+        <v>-1.38364964736407</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.405546344423194</v>
+        <v>-3.805044873335623</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.603658285329939</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.56980515370998</v>
+        <v>-45.89548927920076</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.380716971527523</v>
+        <v>-1.475740905552771</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.666148632487751</v>
+        <v>-4.058655871682698</v>
       </c>
     </row>
   </sheetData>
